--- a/trend_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
+++ b/trend_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0806521132417552</v>
+        <v>0.919347886758245</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.621195802826077</v>
+        <v>0.378804197173923</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.874486334334437</v>
+        <v>0.125513665665563</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.326357432711761</v>
+        <v>0.673642567288239</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3074,14 +3074,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>1.06502494269949e-05</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.710144927536232</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.552</v>
+        <v>1.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.010310459281575</v>
+        <v>0.0993877551020409</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0284474505074644</v>
+        <v>0.0477274118022537</v>
       </c>
       <c r="M30" t="n">
-        <v>0.046486486940621</v>
+        <v>0.188179296935463</v>
       </c>
       <c r="N30" t="n">
-        <v>1.86783682637229</v>
+        <v>7.64521193092622</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3151,7 +3151,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3161,46 +3165,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.003224360563705</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0649350649350649</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>127</v>
+        <v>4.15</v>
       </c>
       <c r="K31" t="n">
-        <v>1.89707409972299</v>
+        <v>-0.127947454844007</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.16915227763208</v>
+        <v>-0.215484992340085</v>
       </c>
       <c r="M31" t="n">
-        <v>12.6981954393327</v>
+        <v>-0.0307915091568182</v>
       </c>
       <c r="N31" t="n">
-        <v>1.49375913364015</v>
+        <v>-3.0830712010604</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3209,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3238,7 +3242,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3248,14 +3256,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3263,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>3.21293677196799e-06</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.808641975308642</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.61</v>
+        <v>10.955</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0554851406324041</v>
+        <v>-0.0642197802197803</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.853385814756783</v>
+        <v>-0.09128129123028331</v>
       </c>
       <c r="M32" t="n">
-        <v>0.486502511878713</v>
+        <v>-0.041184218528823</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.839412112441817</v>
+        <v>-0.586214333361755</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3296,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3325,7 +3333,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3335,46 +3347,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.167966513752885</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.180722891566265</v>
       </c>
       <c r="H33" t="n">
+        <v>0.0662650602409639</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.6505</v>
+        <v>0.008</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0211667789757412</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0295821587643205</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0004575182865666</v>
+        <v>0.000110548436783</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.25392451587106</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3383,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3412,7 +3424,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3422,11 +3438,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3437,31 +3453,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.235351496255705</v>
+        <v>0.0316077493408912</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.36969696969697</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>127.5</v>
+        <v>16</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.487799671592775</v>
+        <v>0.575182705076684</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.22800278628289</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.954734826592133</v>
+        <v>1.32178444163589</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.382587977719823</v>
+        <v>3.59489190672928</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3470,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3499,7 +3515,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3509,46 +3529,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.429013828493761</v>
+        <v>0.9391348684883341</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.935897435897436</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.115384615384615</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>7.145</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0387735793212313</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.215859220675851</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09680931881478019</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.5426673103041471</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3557,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3586,7 +3606,1253 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.441343370204307</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.554140127388535</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.089171974522293</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3.55030669212973e-05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.089171974522293</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.713375796178344</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0031986863711001</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0019721662332642</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0053045522792108</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.92105595553871</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.836698568341507</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.633540372670807</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0083989992226972</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0049482142722868</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0221564913100195</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.109790839512382</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0175087690999954</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0120481927710843</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6084337349397591</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.0745</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0021443248532289</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0005473471519194</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0036688967152414</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.87828839359592</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0180913790605771</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0180722891566265</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.421686746987952</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0024269148407173</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0002496582365003</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0041215583851514</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.88864968149209</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5793045714032919</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.036144578313253</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.259036144578313</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0002097540418652</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0001871804328939</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.303512079165059</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.867469879518072</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0062890275119853</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0158032476356115</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0286017080565171</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.679894866160576</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.010310459281575</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0284474505074644</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.046486486940621</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.86783682637229</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>127</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.89707409972299</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.16915227763208</v>
+      </c>
+      <c r="M44" t="n">
+        <v>12.6981954393327</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.49375913364015</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0554851406324041</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.853385814756783</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.486502511878713</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.839412112441817</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.6505</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0211667789757412</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0295821587643205</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0004575182865666</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-3.25392451587106</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.235351496255705</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.487799671592775</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.22800278628289</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.954734826592133</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.382587977719823</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7.145</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0387735793212313</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.215859220675851</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.09680931881478019</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.5426673103041471</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.227377150980917</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>128</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.221565059144677</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.851893581497295</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.546047966193466</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.173097702456779</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
+++ b/trend_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.181242226463927</v>
+        <v>0.887700175939394</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0232558139534884</v>
       </c>
       <c r="H2" t="n">
-        <v>0.930232558139535</v>
+        <v>0.906976744186046</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.243691130298273</v>
+        <v>-0.418544690603514</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.227739261710516</v>
+        <v>-1.12229742016149</v>
       </c>
       <c r="M2" t="n">
-        <v>0.979147258020918</v>
+        <v>0.07858828679381651</v>
       </c>
       <c r="N2" t="n">
-        <v>8.703254653509751</v>
+        <v>-14.9480246644112</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.86358412183752</v>
+        <v>0.37260841156073</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0363636363636364</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H3" t="n">
-        <v>0.890909090909091</v>
+        <v>0.9019607843137259</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.120412087912088</v>
+        <v>-0.0210822510822511</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0752583722472895</v>
+        <v>-0.352638804197512</v>
       </c>
       <c r="M3" t="n">
-        <v>0.357796513008934</v>
+        <v>0.300089069404558</v>
       </c>
       <c r="N3" t="n">
-        <v>6.17497886728656</v>
+        <v>-1.17123617123617</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.919347886758245</v>
+        <v>0.955017512481711</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.913793103448276</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.845</v>
+        <v>10.835</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0451545329670327</v>
+        <v>0.0713206366002421</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0159151186855529</v>
+        <v>0.0061224511489893</v>
       </c>
       <c r="M4" t="n">
-        <v>0.13201118437557</v>
+        <v>0.144667852709097</v>
       </c>
       <c r="N4" t="n">
-        <v>0.416362682960191</v>
+        <v>0.658243069683822</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,14 +842,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.363275339454333</v>
+        <v>0.0801272886132401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.135593220338983</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="H5" t="n">
         <v>0.152542372881356</v>
@@ -861,16 +861,16 @@
         <v>0.008</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0003162337662337</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0002948025582573</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0004375216741392</v>
+        <v>0.0008553864168618</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.95292207792207</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,39 +929,39 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.949001373212443</v>
+        <v>0.258904186330391</v>
       </c>
       <c r="G6" t="n">
         <v>0.103448275862069</v>
       </c>
       <c r="H6" t="n">
-        <v>0.413793103448276</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.26459478021978</v>
+        <v>0.546372475691847</v>
       </c>
       <c r="L6" t="n">
-        <v>-8.79625884393344</v>
+        <v>-1.64725859050332</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3.98892160879863</v>
       </c>
       <c r="N6" t="n">
-        <v>-18.5417164357382</v>
+        <v>2.6017736937707</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.9807692307692309</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.271498457492172</v>
+        <v>0.994887454856934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.610169491525424</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="H8" t="n">
         <v>0.101694915254237</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.0069438771040374</v>
       </c>
       <c r="G9" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H9" t="n">
-        <v>0.898305084745763</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.081</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0004827843147418</v>
+        <v>0.0140480769230769</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0102267213202419</v>
+        <v>0.0033161440024262</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0105257228521839</v>
+        <v>0.0208806943169154</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.596030018199829</v>
+        <v>16.1472148541114</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.378804197173923</v>
+        <v>0.830756099790085</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.862068965517241</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0128307962529271</v>
+        <v>0.032696977842184</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.07380247731540369</v>
+        <v>-0.0189889535654691</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0513579939682499</v>
+        <v>0.0820548336083106</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.167503867531686</v>
+        <v>0.425188268428921</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1372,35 +1372,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.528766206292791</v>
+        <v>0.0181792765863954</v>
       </c>
       <c r="G11" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H11" t="n">
-        <v>0.779661016949153</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0017386100667323</v>
+        <v>0.0151674881117496</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0111415124787989</v>
+        <v>0.0018049922236706</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0119129730938814</v>
+        <v>0.021387233262769</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.0454236079204</v>
+        <v>16.4864001214669</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.897888170709378</v>
+        <v>0.0535232955622911</v>
       </c>
       <c r="G12" t="n">
-        <v>0.440677966101695</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H12" t="n">
-        <v>0.406779661016949</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0105767374517375</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.501717032967033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0216997332841488</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>7.55481246552675</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.668739708229971</v>
+        <v>0.170984969792188</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.440677966101695</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.14</v>
+        <v>0.013</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.004969387755102</v>
+        <v>0.0006820728291316</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0132380667383223</v>
+        <v>-0.0005922643022856</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006970832450536</v>
+        <v>0.0018635204081632</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.54956268221574</v>
+        <v>5.24671407024348</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.706814176164489</v>
+        <v>0.528673538981874</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.542372881355932</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.013</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0003278725314183</v>
+        <v>-0.0129982206405694</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0018476770176032</v>
+        <v>-0.286498496283578</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0006687735092652</v>
+        <v>0.280238242756227</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.52209639552548</v>
+        <v>-0.764601214151142</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.997557968494726</v>
+        <v>0.140391959321154</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9830508474576271</v>
+        <v>0.815217391304348</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.398433628473437</v>
+        <v>0.0556737867395762</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.7805965550130159</v>
+        <v>-0.0432114181316112</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.133671669721948</v>
+        <v>0.230934120603774</v>
       </c>
       <c r="N15" t="n">
-        <v>-30.414780799499</v>
+        <v>3.59185720900492</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0260577241322586</v>
+        <v>0.007313150539184</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0280373831775701</v>
       </c>
       <c r="H16" t="n">
-        <v>0.760416666666667</v>
+        <v>0.635514018691589</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08448914835164829</v>
+        <v>-0.15051510989011</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009469054277651901</v>
+        <v>-0.37329413552644</v>
       </c>
       <c r="M16" t="n">
-        <v>0.22947808832861</v>
+        <v>-0.0307618050599968</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8279513343799</v>
+        <v>-4.56106393606394</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0091634919504419</v>
+        <v>0.46808558499548</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0267857142857143</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.607142857142857</v>
+        <v>0.829059829059829</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>10.83</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.141270488738205</v>
+        <v>-0.0008308689717925</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.289765132563873</v>
+        <v>-0.0334071121239184</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.03009227606013</v>
+        <v>0.027437429040362</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.57646806932165</v>
+        <v>-0.0076719203304941</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0124931736412998</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.168067226890756</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0840336134453782</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.125513665665563</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.829059829059829</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.83</v>
+        <v>0.008</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0173153376904276</v>
+        <v>0.0001850303951367</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0457411079543484</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0075188780932619</v>
+        <v>0.0003892022656671</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.159883081167383</v>
+        <v>2.31287993920973</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2104,31 +2104,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0212419515407331</v>
+        <v>0.893959147065907</v>
       </c>
       <c r="G19" t="n">
-        <v>0.184873949579832</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008</v>
+        <v>25</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001365931189229</v>
+        <v>-0.702741702741703</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.51237677298762</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003471333200839</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.70741398653702</v>
+        <v>-2.81096681096681</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,36 +2191,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.722504806765491</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.972727272727273</v>
       </c>
       <c r="H20" t="n">
-        <v>0.347457627118644</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-1.19965716405222</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.546512879952336</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2247,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2259,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,24 +2270,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.994668209367773</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.972972972972973</v>
+        <v>0.554621848739496</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0990990990990991</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2350,46 +2350,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.987043013561459</v>
+        <v>2.77363999920759e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.46218487394958</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="H22" t="n">
-        <v>0.109243697478992</v>
+        <v>0.798319327731092</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.077</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0061680739388407</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0031541498932553</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.008468985091232201</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>8.010485634858069</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2456,31 +2456,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.30818375357385e-05</v>
+        <v>0.860690601244489</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0840336134453782</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.798319327731092</v>
+        <v>0.732758620689655</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.068</v>
+        <v>7.685</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0057195741758241</v>
+        <v>0.0121953595317725</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0029067844242189</v>
+        <v>-0.0069004006455267</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008038171015077301</v>
+        <v>0.0313303817319776</v>
       </c>
       <c r="N23" t="n">
-        <v>8.411138493859079</v>
+        <v>0.158690429821372</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2518,11 +2518,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2532,14 +2528,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2547,31 +2543,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.673642567288239</v>
+        <v>0.0003707256851592</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H24" t="n">
-        <v>0.717948717948718</v>
+        <v>0.6890756302521009</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>7.65</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005702576112412</v>
+        <v>0.0057754907306434</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0150660227551285</v>
+        <v>0.0029597442108843</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0239378056592779</v>
+        <v>0.0094037460721093</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0745434785936217</v>
+        <v>6.87558420314691</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2609,7 +2605,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.00044409176544</v>
+        <v>0.113760088287918</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0168067226890756</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H25" t="n">
-        <v>0.621848739495798</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.075</v>
+        <v>0.14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0057754907306434</v>
+        <v>0.0025085851648351</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0029962287914483</v>
+        <v>-0.0007076896879457</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008589951649902</v>
+        <v>0.0056997624942835</v>
       </c>
       <c r="N25" t="n">
-        <v>7.70065430752454</v>
+        <v>1.79184654631083</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,46 +2710,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.431083828307767</v>
+        <v>0.0353417500851208</v>
       </c>
       <c r="G26" t="n">
-        <v>0.361344537815126</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.302521008403361</v>
+        <v>0.34453781512605</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.012</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06366710816645541</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.76956323930846</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2816,31 +2816,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0466899486221302</v>
+        <v>0.194214792982024</v>
       </c>
       <c r="G27" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.436974789915966</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0037168297455968</v>
+        <v>0.0199408553230209</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-0.0229171308702762</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0067856451925619</v>
+        <v>0.0802006851306663</v>
       </c>
       <c r="N27" t="n">
-        <v>2.85909980430528</v>
+        <v>1.55787932211101</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0078442086019906</v>
+        <v>0.0003059929876974</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.0068493150684931</v>
       </c>
       <c r="H28" t="n">
-        <v>0.310924369747899</v>
+        <v>0.705479452054795</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.011</v>
+        <v>1.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0004060589216231</v>
+        <v>0.0669911335675476</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0262028965389045</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0007077649792106</v>
+        <v>0.12407760530206</v>
       </c>
       <c r="N28" t="n">
-        <v>3.6914447420284</v>
+        <v>5.5825944639623</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.309745114454865</v>
+        <v>0.000197295463342</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H29" t="n">
-        <v>0.899159663865546</v>
+        <v>0.5625</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>3.96</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0100990783410138</v>
+        <v>-0.166173794358508</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0310742485812903</v>
+        <v>-0.250551848670428</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0393800539083558</v>
+        <v>-0.0775545163980704</v>
       </c>
       <c r="N29" t="n">
-        <v>0.980493042816877</v>
+        <v>-4.19630793834615</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.06502494269949e-05</v>
+        <v>2.38776187240219e-05</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.710144927536232</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.3</v>
+        <v>10.915</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0993877551020409</v>
+        <v>-0.0546632653061225</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0477274118022537</v>
+        <v>-0.07677803258336439</v>
       </c>
       <c r="M30" t="n">
-        <v>0.188179296935463</v>
+        <v>-0.0332865216380129</v>
       </c>
       <c r="N30" t="n">
-        <v>7.64521193092622</v>
+        <v>-0.500808660614956</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3165,46 +3165,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.08733373389873909</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.174157303370787</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0617977528089888</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.003224360563705</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0649350649350649</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.571428571428571</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
       <c r="J31" t="n">
-        <v>4.15</v>
+        <v>0.008</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.127947454844007</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.215484992340085</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0307915091568182</v>
+        <v>0.0001233660747788</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.0830712010604</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3256,14 +3256,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3271,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.21293677196799e-06</v>
+        <v>0.0148347203616095</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H32" t="n">
-        <v>0.808641975308642</v>
+        <v>0.361581920903955</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.955</v>
+        <v>16</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0642197802197803</v>
+        <v>0.621173469387755</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.09128129123028331</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.041184218528823</v>
+        <v>1.2963620230701</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.586214333361755</v>
+        <v>3.88233418367347</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3358,23 +3358,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.167966513752885</v>
+        <v>0.959455646534657</v>
       </c>
       <c r="G33" t="n">
-        <v>0.180722891566265</v>
+        <v>0.940119760479042</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0662650602409639</v>
+        <v>0.107784431137725</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.000110548436783</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3449,35 +3449,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0316077493408912</v>
+        <v>0.8403240083157441</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0545454545454545</v>
+        <v>0.585798816568047</v>
       </c>
       <c r="H34" t="n">
-        <v>0.36969696969697</v>
+        <v>0.0828402366863905</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>16</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.575182705076684</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.32178444163589</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.59489190672928</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3529,46 +3529,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9391348684883341</v>
+        <v>1.13475251920634e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>0.935897435897436</v>
+        <v>0.0828402366863905</v>
       </c>
       <c r="H35" t="n">
-        <v>0.115384615384615</v>
+        <v>0.727810650887574</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.068</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0037627379172048</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0024293618207391</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0054072067018896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>5.53343811353649</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3631,35 +3631,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.441343370204307</v>
+        <v>0.940160853494078</v>
       </c>
       <c r="G36" t="n">
-        <v>0.554140127388535</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.089171974522293</v>
+        <v>0.616279069767442</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.655</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0115535250270529</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0234134483607042</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.150927825304415</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,11 +3697,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3726,31 +3722,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.55030669212973e-05</v>
+        <v>0.0018430733638784</v>
       </c>
       <c r="G37" t="n">
-        <v>0.089171974522293</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H37" t="n">
-        <v>0.713375796178344</v>
+        <v>0.696629213483146</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.065</v>
+        <v>0.076</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0031986863711001</v>
+        <v>0.0025045778402907</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0019721662332642</v>
+        <v>0.0011527950221739</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0053045522792108</v>
+        <v>0.0039243806263155</v>
       </c>
       <c r="N37" t="n">
-        <v>4.92105595553871</v>
+        <v>3.29549715827724</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3790,7 +3786,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3802,14 +3798,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3817,31 +3813,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.836698568341507</v>
+        <v>0.0032587134901774</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H38" t="n">
-        <v>0.633540372670807</v>
+        <v>0.398876404494382</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.65</v>
+        <v>0.13</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0083989992226972</v>
+        <v>0.0028197279975686</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0049482142722868</v>
+        <v>0.0011659851229662</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0221564913100195</v>
+        <v>0.0046503552888065</v>
       </c>
       <c r="N38" t="n">
-        <v>0.109790839512382</v>
+        <v>2.1690215365913</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3850,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3879,7 +3875,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3889,46 +3889,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.0175087690999954</v>
+        <v>0.237772750520082</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0120481927710843</v>
+        <v>0.0337078651685393</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6084337349397591</v>
+        <v>0.258426966292135</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0745</v>
+        <v>0.012</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0021443248532289</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0005473471519194</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0036688967152414</v>
+        <v>0.0002866637023189</v>
       </c>
       <c r="N39" t="n">
-        <v>2.87828839359592</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3995,31 +3995,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.0180913790605771</v>
+        <v>0.0774720812785118</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0180722891566265</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.421686746987952</v>
+        <v>0.8764044943820229</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1285</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0024269148407173</v>
+        <v>0.0201920041313648</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0002496582365003</v>
+        <v>-0.0056561224156877</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0041215583851514</v>
+        <v>0.0501717032967033</v>
       </c>
       <c r="N40" t="n">
-        <v>1.88864968149209</v>
+        <v>1.96038875061794</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4071,46 +4071,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5793045714032919</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G41" t="n">
-        <v>0.036144578313253</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.259036144578313</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.012</v>
+        <v>0.552</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0012357399222296</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002097540418652</v>
+        <v>-0.0593990501364563</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001871804328939</v>
+        <v>0.046486486940621</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.223865927940157</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4148,11 +4148,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4162,46 +4158,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.303512079165059</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.867469879518072</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.925</v>
+        <v>125.56</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0062890275119853</v>
+        <v>-0.170340078998665</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0158032476356115</v>
+        <v>-17.1011836002886</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0286017080565171</v>
+        <v>12.9361630433116</v>
       </c>
       <c r="N42" t="n">
-        <v>0.679894866160576</v>
+        <v>-0.13566428719231</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4210,7 +4206,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4239,11 +4235,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4253,7 +4245,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4268,7 +4260,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.59675202974633</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4280,19 +4272,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.552</v>
+        <v>7.465</v>
       </c>
       <c r="K43" t="n">
-        <v>0.010310459281575</v>
+        <v>-0.0872293637746681</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0284474505074644</v>
+        <v>-0.853385814756783</v>
       </c>
       <c r="M43" t="n">
-        <v>0.046486486940621</v>
+        <v>0.456305308432482</v>
       </c>
       <c r="N43" t="n">
-        <v>1.86783682637229</v>
+        <v>-1.16851123609736</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4340,11 +4332,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4355,31 +4347,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>127</v>
+        <v>0.596</v>
       </c>
       <c r="K44" t="n">
-        <v>1.89707409972299</v>
+        <v>-0.0125724035608309</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.16915227763208</v>
+        <v>-0.0266110729095244</v>
       </c>
       <c r="M44" t="n">
-        <v>12.6981954393327</v>
+        <v>0.0012006297430902</v>
       </c>
       <c r="N44" t="n">
-        <v>1.49375913364015</v>
+        <v>-2.10946368470316</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4388,7 +4380,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4427,11 +4419,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4442,31 +4434,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5</v>
+        <v>0.139625472684369</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.61</v>
+        <v>127</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0554851406324041</v>
+        <v>-0.728476454293628</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.853385814756783</v>
+        <v>-2.83543006974385</v>
       </c>
       <c r="M45" t="n">
-        <v>0.486502511878713</v>
+        <v>0.296356000986735</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.839412112441817</v>
+        <v>-0.573603507317817</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4475,7 +4467,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4514,7 +4506,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4529,7 +4521,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4541,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6505</v>
+        <v>7.27</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0211667789757412</v>
+        <v>0.0201795580110502</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0295821587643205</v>
+        <v>-0.185233953976902</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0004575182865666</v>
+        <v>0.139107656849178</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.25392451587106</v>
+        <v>0.27757301253164</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4562,7 +4554,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4601,11 +4593,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4616,31 +4608,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.235351496255705</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>127.5</v>
+        <v>0.5725</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.487799671592775</v>
+        <v>-0.0005166195190947</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.22800278628289</v>
+        <v>-0.0154199257359591</v>
       </c>
       <c r="M47" t="n">
-        <v>0.954734826592133</v>
+        <v>0.0101054124004254</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.382587977719823</v>
+        <v>-0.09023921730912959</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4649,7 +4641,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4688,11 +4680,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4703,31 +4695,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.429013828493761</v>
+        <v>0.081715118235531</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>7.145</v>
+        <v>128</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0387735793212313</v>
+        <v>-0.684677242888402</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.215859220675851</v>
+        <v>-1.36175550186124</v>
       </c>
       <c r="M48" t="n">
-        <v>0.09680931881478019</v>
+        <v>0.0058463171911335</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.5426673103041471</v>
+        <v>-0.534904096006564</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4736,7 +4728,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4775,7 +4767,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4790,31 +4782,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.227377150980917</v>
+        <v>0.7945772533607121</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7333333333333329</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>128</v>
+        <v>7.145</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.221565059144677</v>
+        <v>0.0403577701200533</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.851893581497295</v>
+        <v>-0.0427390186286321</v>
       </c>
       <c r="M49" t="n">
-        <v>0.546047966193466</v>
+        <v>0.10659923063</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.173097702456779</v>
+        <v>0.564839329881782</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4823,7 +4815,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4853,6 +4845,93 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oroua at Apiti Gorge Bridge</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.310165813053503</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>128</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0910166957388487</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.796543779751137</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.633919919522749</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.0711067935459756</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1849990</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5575017</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
+++ b/trend_results/Rivers/OrouaatApitiGorgeBridge_52931f83c4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -139,12 +139,12 @@
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
     <t>&lt; 5 Non-censored values</t>
   </si>
   <si>
@@ -154,46 +154,43 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -675,31 +672,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.887700175939394</v>
+        <v>0.996938415294129</v>
       </c>
       <c r="G2">
-        <v>0.0232558139534884</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H2">
-        <v>0.906976744186046</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="K2">
-        <v>-0.418544690603514</v>
+        <v>-0.772496666936005</v>
       </c>
       <c r="L2">
-        <v>-1.12229742016149</v>
+        <v>-1.33695042135638</v>
       </c>
       <c r="M2">
-        <v>0.07858828679381651</v>
+        <v>-0.299871027365582</v>
       </c>
       <c r="N2">
-        <v>-14.9480246644112</v>
+        <v>-36.7855555683812</v>
       </c>
       <c r="O2" t="s">
         <v>45</v>
@@ -714,19 +711,19 @@
         <v>5575017</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
         <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -746,31 +743,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.37260841156073</v>
+        <v>0.027922211980095</v>
       </c>
       <c r="G3">
-        <v>0.0392156862745098</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H3">
-        <v>0.9019607843137259</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="K3">
-        <v>-0.0210822510822511</v>
+        <v>-0.395411192068801</v>
       </c>
       <c r="L3">
-        <v>-0.352638804197512</v>
+        <v>-0.963962403289223</v>
       </c>
       <c r="M3">
-        <v>0.300089069404558</v>
+        <v>-0.0381789225964742</v>
       </c>
       <c r="N3">
-        <v>-1.17123617123617</v>
+        <v>-23.2594818864</v>
       </c>
       <c r="O3" t="s">
         <v>45</v>
@@ -785,19 +782,19 @@
         <v>5575017</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -817,31 +814,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.955017512481711</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9655172413793101</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.835</v>
+        <v>10.88</v>
       </c>
       <c r="K4">
-        <v>0.0713206366002421</v>
+        <v>0.0029446868920555</v>
       </c>
       <c r="L4">
-        <v>0.0061224511489893</v>
+        <v>-0.08321181686455791</v>
       </c>
       <c r="M4">
-        <v>0.144667852709097</v>
+        <v>0.0795451846018889</v>
       </c>
       <c r="N4">
-        <v>0.658243069683822</v>
+        <v>0.0270651368755105</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -856,19 +853,19 @@
         <v>5575017</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -888,10 +885,10 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0801272886132401</v>
+        <v>7.25451501665731E-05</v>
       </c>
       <c r="G5">
-        <v>0.152542372881356</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="H5">
         <v>0.152542372881356</v>
@@ -903,16 +900,16 @@
         <v>0.008</v>
       </c>
       <c r="K5">
-        <v>0.0003162337662337</v>
+        <v>0.0011343167701863</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0005826383031543</v>
       </c>
       <c r="M5">
-        <v>0.0008553864168618</v>
+        <v>0.0015811688311688</v>
       </c>
       <c r="N5">
-        <v>3.95292207792207</v>
+        <v>14.1789596273292</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
@@ -927,19 +924,19 @@
         <v>5575017</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -956,34 +953,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.258904186330391</v>
+        <v>0.245740583246696</v>
       </c>
       <c r="G6">
-        <v>0.103448275862069</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H6">
-        <v>0.448275862068966</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="K6">
-        <v>0.546372475691847</v>
+        <v>0.0796619411123225</v>
       </c>
       <c r="L6">
-        <v>-1.64725859050332</v>
+        <v>-1.15279572526319</v>
       </c>
       <c r="M6">
-        <v>3.98892160879863</v>
+        <v>2.78832766277249</v>
       </c>
       <c r="N6">
-        <v>2.6017736937707</v>
+        <v>0.390499711334914</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
@@ -998,19 +995,19 @@
         <v>5575017</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1027,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
-        <v>0.981132075471698</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="H7">
-        <v>0.0377358490566038</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1051,19 +1048,19 @@
         <v>5575017</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.994887454856934</v>
+        <v>0.9995149554727309</v>
       </c>
       <c r="G8">
-        <v>0.644067796610169</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="H8">
         <v>0.101694915254237</v>
@@ -1113,7 +1110,7 @@
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1849990</v>
@@ -1122,19 +1119,19 @@
         <v>5575017</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1151,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0069438771040374</v>
+        <v>0.12348928863963</v>
       </c>
       <c r="G9">
-        <v>0.0169491525423729</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H9">
-        <v>0.915254237288136</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.08699999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K9">
-        <v>0.0140480769230769</v>
+        <v>0.004110296476696</v>
       </c>
       <c r="L9">
-        <v>0.0033161440024262</v>
+        <v>-0.0012423248969593</v>
       </c>
       <c r="M9">
-        <v>0.0208806943169154</v>
+        <v>0.0171527192003082</v>
       </c>
       <c r="N9">
-        <v>16.1472148541114</v>
+        <v>4.67079145079093</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1849990</v>
@@ -1193,19 +1190,19 @@
         <v>5575017</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,37 +1222,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.830756099790085</v>
+        <v>0.999482652269137</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.8245614035087721</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.69</v>
+        <v>7.755</v>
       </c>
       <c r="K10">
-        <v>0.032696977842184</v>
+        <v>0.094733429394813</v>
       </c>
       <c r="L10">
-        <v>-0.0189889535654691</v>
+        <v>0.0517426162725642</v>
       </c>
       <c r="M10">
-        <v>0.0820548336083106</v>
+        <v>0.136303115806103</v>
       </c>
       <c r="N10">
-        <v>0.425188268428921</v>
+        <v>1.22157871560043</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1849990</v>
@@ -1264,16 +1261,16 @@
         <v>5575017</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0181792765863954</v>
+        <v>0.12348928863963</v>
       </c>
       <c r="G11">
         <v>0.0169491525423729</v>
@@ -1308,22 +1305,22 @@
         <v>0.092</v>
       </c>
       <c r="K11">
-        <v>0.0151674881117496</v>
+        <v>0.003771340480805</v>
       </c>
       <c r="L11">
-        <v>0.0018049922236706</v>
+        <v>-0.0025698221867215</v>
       </c>
       <c r="M11">
-        <v>0.021387233262769</v>
+        <v>0.0165747952842942</v>
       </c>
       <c r="N11">
-        <v>16.4864001214669</v>
+        <v>4.09928313130979</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1849990</v>
@@ -1332,19 +1329,19 @@
         <v>5575017</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,37 +1361,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0535232955622911</v>
+        <v>0.264703199811542</v>
       </c>
       <c r="G12">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.457627118644068</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.14</v>
       </c>
       <c r="K12">
-        <v>0.0105767374517375</v>
+        <v>0.0043847539015606</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.007180903943148</v>
       </c>
       <c r="M12">
-        <v>0.0216997332841488</v>
+        <v>0.0171113851295765</v>
       </c>
       <c r="N12">
-        <v>7.55481246552675</v>
+        <v>3.1319670725433</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1849990</v>
@@ -1403,19 +1400,19 @@
         <v>5575017</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,31 +1432,31 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.170984969792188</v>
+        <v>0.122788138761531</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.542372881355932</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K13">
-        <v>0.0006820728291316</v>
+        <v>0.0006275773195876</v>
       </c>
       <c r="L13">
-        <v>-0.0005922643022856</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.0018635204081632</v>
+        <v>0.0014889243036282</v>
       </c>
       <c r="N13">
-        <v>5.24671407024348</v>
+        <v>5.22981099656357</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
@@ -1474,19 +1471,19 @@
         <v>5575017</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1503,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.528673538981874</v>
+        <v>0.204966759850955</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9830508474576271</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="K14">
-        <v>-0.0129982206405694</v>
+        <v>0.07589610389610391</v>
       </c>
       <c r="L14">
-        <v>-0.286498496283578</v>
+        <v>-0.08495943634332009</v>
       </c>
       <c r="M14">
-        <v>0.280238242756227</v>
+        <v>0.284892407801688</v>
       </c>
       <c r="N14">
-        <v>-0.764601214151142</v>
+        <v>7.22820037105752</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1849990</v>
@@ -1545,19 +1542,19 @@
         <v>5575017</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1574,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.140391959321154</v>
+        <v>0.357470033644578</v>
       </c>
       <c r="G15">
-        <v>0.0108695652173913</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H15">
-        <v>0.815217391304348</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K15">
-        <v>0.0556737867395762</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L15">
-        <v>-0.0432114181316112</v>
+        <v>-0.0502888846186261</v>
       </c>
       <c r="M15">
-        <v>0.230934120603774</v>
+        <v>0.138529840061572</v>
       </c>
       <c r="N15">
-        <v>3.59185720900492</v>
+        <v>0.334478021978022</v>
       </c>
       <c r="O15" t="s">
         <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1849990</v>
@@ -1616,19 +1613,19 @@
         <v>5575017</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" t="s">
         <v>63</v>
-      </c>
-      <c r="W15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,37 +1645,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.007313150539184</v>
+        <v>0.0005251170147529</v>
       </c>
       <c r="G16">
-        <v>0.0280373831775701</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H16">
-        <v>0.635514018691589</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K16">
-        <v>-0.15051510989011</v>
+        <v>-0.200686813186813</v>
       </c>
       <c r="L16">
-        <v>-0.37329413552644</v>
+        <v>-0.52716292356214</v>
       </c>
       <c r="M16">
-        <v>-0.0307618050599968</v>
+        <v>-0.0702063967153288</v>
       </c>
       <c r="N16">
-        <v>-4.56106393606394</v>
+        <v>-6.57989551432174</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1849990</v>
@@ -1687,19 +1684,19 @@
         <v>5575017</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1716,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.46808558499548</v>
+        <v>0.447404559274375</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.829059829059829</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.83</v>
+        <v>10.825</v>
       </c>
       <c r="K17">
-        <v>-0.0008308689717925</v>
+        <v>-0.0016643924770412</v>
       </c>
       <c r="L17">
-        <v>-0.0334071121239184</v>
+        <v>-0.0304172925162689</v>
       </c>
       <c r="M17">
-        <v>0.027437429040362</v>
+        <v>0.0280963153549506</v>
       </c>
       <c r="N17">
-        <v>-0.0076719203304941</v>
+        <v>-0.0153754501343302</v>
       </c>
       <c r="O17" t="s">
         <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>1849990</v>
@@ -1758,19 +1755,19 @@
         <v>5575017</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,13 +1787,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.0124931736412998</v>
+        <v>0.0035678975909204</v>
       </c>
       <c r="G18">
-        <v>0.168067226890756</v>
+        <v>0.159663865546218</v>
       </c>
       <c r="H18">
-        <v>0.0840336134453782</v>
+        <v>0.0756302521008403</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1805,22 +1802,22 @@
         <v>0.008</v>
       </c>
       <c r="K18">
-        <v>0.0001850303951367</v>
+        <v>0.0002308786346396</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0003892022656671</v>
+        <v>0.0004108548931383</v>
       </c>
       <c r="N18">
-        <v>2.31287993920973</v>
+        <v>2.8859829329962</v>
       </c>
       <c r="O18" t="s">
         <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1849990</v>
@@ -1829,19 +1826,19 @@
         <v>5575017</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1855,43 +1852,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.893959147065907</v>
+        <v>0.899267898935398</v>
       </c>
       <c r="G19">
         <v>0.0677966101694915</v>
       </c>
       <c r="H19">
-        <v>0.355932203389831</v>
+        <v>0.398305084745763</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>22.7</v>
       </c>
       <c r="K19">
-        <v>-0.702741702741703</v>
+        <v>-0.935706931317961</v>
       </c>
       <c r="L19">
-        <v>-2.51237677298762</v>
+        <v>-2.16413187819572</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-2.81096681096681</v>
+        <v>-4.12205696615842</v>
       </c>
       <c r="O19" t="s">
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q19">
         <v>1849990</v>
@@ -1900,19 +1897,19 @@
         <v>5575017</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,10 +1929,10 @@
         <v>43</v>
       </c>
       <c r="G20">
-        <v>0.972727272727273</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="H20">
-        <v>0.1</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -1953,19 +1950,19 @@
         <v>5575017</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1982,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.994668209367773</v>
+        <v>0.998660952569524</v>
       </c>
       <c r="G21">
-        <v>0.554621848739496</v>
+        <v>0.638655462184874</v>
       </c>
       <c r="H21">
-        <v>0.100840336134454</v>
+        <v>0.0840336134453782</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2015,7 +2012,7 @@
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1849990</v>
@@ -2024,19 +2021,19 @@
         <v>5575017</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,37 +2053,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>2.77363999920759E-05</v>
+        <v>0.0010176471118156</v>
       </c>
       <c r="G22">
-        <v>0.0756302521008403</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H22">
-        <v>0.798319327731092</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.077</v>
+        <v>0.079</v>
       </c>
       <c r="K22">
-        <v>0.0061680739388407</v>
+        <v>0.0039809264305177</v>
       </c>
       <c r="L22">
-        <v>0.0031541498932553</v>
+        <v>0.0019961359325456</v>
       </c>
       <c r="M22">
-        <v>0.008468985091232201</v>
+        <v>0.0070006420536181</v>
       </c>
       <c r="N22">
-        <v>8.010485634858069</v>
+        <v>5.03914738040216</v>
       </c>
       <c r="O22" t="s">
         <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1849990</v>
@@ -2095,19 +2092,19 @@
         <v>5575017</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,37 +2124,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.860690601244489</v>
+        <v>0.897097860185618</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.732758620689655</v>
+        <v>0.735042735042735</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.685</v>
+        <v>7.72</v>
       </c>
       <c r="K23">
-        <v>0.0121953595317725</v>
+        <v>0.012745940287057</v>
       </c>
       <c r="L23">
-        <v>-0.0069004006455267</v>
+        <v>-0.0042769320843092</v>
       </c>
       <c r="M23">
-        <v>0.0313303817319776</v>
+        <v>0.0314509643637579</v>
       </c>
       <c r="N23">
-        <v>0.158690429821372</v>
+        <v>0.165102853459288</v>
       </c>
       <c r="O23" t="s">
         <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1849990</v>
@@ -2166,16 +2163,16 @@
         <v>5575017</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2192,40 +2189,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.0003707256851592</v>
+        <v>0.0041272072982384</v>
       </c>
       <c r="G24">
         <v>0.0168067226890756</v>
       </c>
       <c r="H24">
-        <v>0.6890756302521009</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>0.08400000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="K24">
-        <v>0.0057754907306434</v>
+        <v>0.0035120192307692</v>
       </c>
       <c r="L24">
-        <v>0.0029597442108843</v>
+        <v>0.0014738167381269</v>
       </c>
       <c r="M24">
-        <v>0.0094037460721093</v>
+        <v>0.0068187778774888</v>
       </c>
       <c r="N24">
-        <v>6.87558420314691</v>
+        <v>4.13178733031674</v>
       </c>
       <c r="O24" t="s">
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1849990</v>
@@ -2234,19 +2231,19 @@
         <v>5575017</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2266,13 +2263,13 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.113760088287918</v>
+        <v>0.215474991637332</v>
       </c>
       <c r="G25">
         <v>0.008403361344537799</v>
       </c>
       <c r="H25">
-        <v>0.361344537815126</v>
+        <v>0.302521008403361</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2281,16 +2278,16 @@
         <v>0.14</v>
       </c>
       <c r="K25">
-        <v>0.0025085851648351</v>
+        <v>0.0020020554984583</v>
       </c>
       <c r="L25">
-        <v>-0.0007076896879457</v>
+        <v>-0.0016670470104974</v>
       </c>
       <c r="M25">
-        <v>0.0056997624942835</v>
+        <v>0.0049931647300068</v>
       </c>
       <c r="N25">
-        <v>1.79184654631083</v>
+        <v>1.43003964175598</v>
       </c>
       <c r="O25" t="s">
         <v>45</v>
@@ -2305,19 +2302,19 @@
         <v>5575017</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2337,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0353417500851208</v>
+        <v>0.0055085969217018</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.34453781512605</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2352,22 +2349,22 @@
         <v>0.012</v>
       </c>
       <c r="K26">
-        <v>0.000332347588717</v>
+        <v>0.0004060589216231</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.0001212550144802</v>
       </c>
       <c r="M26">
-        <v>0.000668956043956</v>
+        <v>0.0006788111509144</v>
       </c>
       <c r="N26">
-        <v>2.76956323930846</v>
+        <v>3.38382434685937</v>
       </c>
       <c r="O26" t="s">
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1849990</v>
@@ -2376,19 +2373,19 @@
         <v>5575017</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2408,37 +2405,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.194214792982024</v>
+        <v>0.049827202847641</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.899159663865546</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="K27">
-        <v>0.0199408553230209</v>
+        <v>0.0393800539083558</v>
       </c>
       <c r="L27">
-        <v>-0.0229171308702762</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.0802006851306663</v>
+        <v>0.105708703591526</v>
       </c>
       <c r="N27">
-        <v>1.55787932211101</v>
+        <v>3.75048132460532</v>
       </c>
       <c r="O27" t="s">
         <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1849990</v>
@@ -2447,19 +2444,19 @@
         <v>5575017</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,37 +2476,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0003059929876974</v>
+        <v>0.0042079498895091</v>
       </c>
       <c r="G28">
-        <v>0.0068493150684931</v>
+        <v>0.0137931034482759</v>
       </c>
       <c r="H28">
-        <v>0.705479452054795</v>
+        <v>0.710344827586207</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="K28">
-        <v>0.0669911335675476</v>
+        <v>0.0403418842304193</v>
       </c>
       <c r="L28">
-        <v>0.0262028965389045</v>
+        <v>0.0136874811894333</v>
       </c>
       <c r="M28">
-        <v>0.12407760530206</v>
+        <v>0.08095560003663579</v>
       </c>
       <c r="N28">
-        <v>5.5825944639623</v>
+        <v>3.1032218638784</v>
       </c>
       <c r="O28" t="s">
         <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q28">
         <v>1849990</v>
@@ -2518,19 +2515,19 @@
         <v>5575017</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V28" t="s">
+        <v>62</v>
+      </c>
+      <c r="W28" t="s">
         <v>63</v>
-      </c>
-      <c r="W28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2550,37 +2547,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.000197295463342</v>
+        <v>1.09432839501267E-06</v>
       </c>
       <c r="G29">
-        <v>0.0625</v>
+        <v>0.0649350649350649</v>
       </c>
       <c r="H29">
-        <v>0.5625</v>
+        <v>0.5844155844155841</v>
       </c>
       <c r="I29">
         <v>8</v>
       </c>
       <c r="J29">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="K29">
-        <v>-0.166173794358508</v>
+        <v>-0.238985823336968</v>
       </c>
       <c r="L29">
-        <v>-0.250551848670428</v>
+        <v>-0.32963093363957</v>
       </c>
       <c r="M29">
-        <v>-0.0775545163980704</v>
+        <v>-0.138318220972562</v>
       </c>
       <c r="N29">
-        <v>-4.19630793834615</v>
+        <v>-6.11216939480738</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1849990</v>
@@ -2589,19 +2586,19 @@
         <v>5575017</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2621,37 +2618,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>2.38776187240219E-05</v>
+        <v>0.0006548376141389</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.798850574712644</v>
+        <v>0.78735632183908</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.915</v>
+        <v>10.88</v>
       </c>
       <c r="K30">
-        <v>-0.0546632653061225</v>
+        <v>-0.038342081241442</v>
       </c>
       <c r="L30">
-        <v>-0.07677803258336439</v>
+        <v>-0.0573127772230543</v>
       </c>
       <c r="M30">
-        <v>-0.0332865216380129</v>
+        <v>-0.0162926867296661</v>
       </c>
       <c r="N30">
-        <v>-0.500808660614956</v>
+        <v>-0.352408834939725</v>
       </c>
       <c r="O30" t="s">
         <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1849990</v>
@@ -2660,19 +2657,19 @@
         <v>5575017</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2689,16 +2686,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.08733373389873909</v>
+        <v>0.005331597217218</v>
       </c>
       <c r="G31">
         <v>0.174157303370787</v>
       </c>
       <c r="H31">
-        <v>0.0617977528089888</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2707,16 +2704,16 @@
         <v>0.008</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>9.66269841269842E-05</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0001233660747788</v>
+        <v>0.0002030294608115</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1.2078373015873</v>
       </c>
       <c r="O31" t="s">
         <v>45</v>
@@ -2731,19 +2728,19 @@
         <v>5575017</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2760,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>0.0148347203616095</v>
+        <v>0.0933032785464684</v>
       </c>
       <c r="G32">
         <v>0.0508474576271186</v>
       </c>
       <c r="H32">
-        <v>0.361581920903955</v>
+        <v>0.412429378531073</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2778,22 +2775,22 @@
         <v>16</v>
       </c>
       <c r="K32">
-        <v>0.621173469387755</v>
+        <v>0.292319220387923</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1.2963620230701</v>
+        <v>0.867843970334497</v>
       </c>
       <c r="N32">
-        <v>3.88233418367347</v>
+        <v>1.82699512742452</v>
       </c>
       <c r="O32" t="s">
         <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q32">
         <v>1849990</v>
@@ -2802,19 +2799,19 @@
         <v>5575017</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2834,13 +2831,13 @@
         <v>44</v>
       </c>
       <c r="F33">
-        <v>0.959455646534657</v>
+        <v>0.970363494526174</v>
       </c>
       <c r="G33">
-        <v>0.940119760479042</v>
+        <v>0.934131736526946</v>
       </c>
       <c r="H33">
-        <v>0.107784431137725</v>
+        <v>0.11377245508982</v>
       </c>
       <c r="I33">
         <v>8</v>
@@ -2873,19 +2870,19 @@
         <v>5575017</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2902,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.8403240083157441</v>
+        <v>0.959544952799782</v>
       </c>
       <c r="G34">
-        <v>0.585798816568047</v>
+        <v>0.595505617977528</v>
       </c>
       <c r="H34">
-        <v>0.0828402366863905</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2935,7 +2932,7 @@
         <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q34">
         <v>1849990</v>
@@ -2944,19 +2941,19 @@
         <v>5575017</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2976,13 +2973,13 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>1.13475251920634E-06</v>
+        <v>2.29819314011268E-06</v>
       </c>
       <c r="G35">
-        <v>0.0828402366863905</v>
+        <v>0.0842696629213483</v>
       </c>
       <c r="H35">
-        <v>0.727810650887574</v>
+        <v>0.730337078651685</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -2991,22 +2988,22 @@
         <v>0.068</v>
       </c>
       <c r="K35">
-        <v>0.0037627379172048</v>
+        <v>0.003187115943818</v>
       </c>
       <c r="L35">
-        <v>0.0024293618207391</v>
+        <v>0.0021536390405553</v>
       </c>
       <c r="M35">
-        <v>0.0054072067018896</v>
+        <v>0.0047412989049215</v>
       </c>
       <c r="N35">
-        <v>5.53343811353649</v>
+        <v>4.68693521149716</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1849990</v>
@@ -3015,19 +3012,19 @@
         <v>5575017</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3047,37 +3044,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.940160853494078</v>
+        <v>0.847648540862616</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.616279069767442</v>
+        <v>0.598837209302326</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.655</v>
+        <v>7.705</v>
       </c>
       <c r="K36">
-        <v>0.0115535250270529</v>
+        <v>0.006336216703005</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0037004317067541</v>
       </c>
       <c r="M36">
-        <v>0.0234134483607042</v>
+        <v>0.0164989980607505</v>
       </c>
       <c r="N36">
-        <v>0.150927825304415</v>
+        <v>0.08223512917592569</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q36">
         <v>1849990</v>
@@ -3086,16 +3083,16 @@
         <v>5575017</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3115,37 +3112,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0018430733638784</v>
+        <v>0.0003978438246158</v>
       </c>
       <c r="G37">
         <v>0.0112359550561798</v>
       </c>
       <c r="H37">
-        <v>0.696629213483146</v>
+        <v>0.685393258426966</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="K37">
-        <v>0.0025045778402907</v>
+        <v>0.0027105179310529</v>
       </c>
       <c r="L37">
-        <v>0.0011527950221739</v>
+        <v>0.0014972843190956</v>
       </c>
       <c r="M37">
-        <v>0.0039243806263155</v>
+        <v>0.0040903514450818</v>
       </c>
       <c r="N37">
-        <v>3.29549715827724</v>
+        <v>3.52015315721158</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q37">
         <v>1849990</v>
@@ -3154,19 +3151,19 @@
         <v>5575017</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3186,10 +3183,10 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.0032587134901774</v>
+        <v>0.0180771691443357</v>
       </c>
       <c r="G38">
-        <v>0.0168539325842697</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H38">
         <v>0.398876404494382</v>
@@ -3201,22 +3198,22 @@
         <v>0.13</v>
       </c>
       <c r="K38">
-        <v>0.0028197279975686</v>
+        <v>0.0023264331210191</v>
       </c>
       <c r="L38">
-        <v>0.0011659851229662</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="M38">
-        <v>0.0046503552888065</v>
+        <v>0.0040694458762849</v>
       </c>
       <c r="N38">
-        <v>2.1690215365913</v>
+        <v>1.78956393924547</v>
       </c>
       <c r="O38" t="s">
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1849990</v>
@@ -3225,19 +3222,19 @@
         <v>5575017</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3254,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.237772750520082</v>
+        <v>0.173143241170336</v>
       </c>
       <c r="G39">
-        <v>0.0337078651685393</v>
+        <v>0.0280898876404494</v>
       </c>
       <c r="H39">
-        <v>0.258426966292135</v>
+        <v>0.264044943820225</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3272,16 +3269,16 @@
         <v>0.012</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>8.03984151441779E-05</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.0002866637023189</v>
+        <v>0.0002803577152976</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.669986792868149</v>
       </c>
       <c r="O39" t="s">
         <v>45</v>
@@ -3296,19 +3293,19 @@
         <v>5575017</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3328,37 +3325,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.0774720812785118</v>
+        <v>0.0225990348212593</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.8764044943820229</v>
+        <v>0.853932584269663</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.03</v>
+        <v>0.976</v>
       </c>
       <c r="K40">
-        <v>0.0201920041313648</v>
+        <v>0.022984756956583</v>
       </c>
       <c r="L40">
-        <v>-0.0056561224156877</v>
+        <v>0.004034221341355</v>
       </c>
       <c r="M40">
         <v>0.0501717032967033</v>
       </c>
       <c r="N40">
-        <v>1.96038875061794</v>
+        <v>2.35499558981383</v>
       </c>
       <c r="O40" t="s">
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1849990</v>
@@ -3367,19 +3364,19 @@
         <v>5575017</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,25 +3408,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.552</v>
+        <v>0.547</v>
       </c>
       <c r="K41">
-        <v>-0.0012357399222296</v>
+        <v>-0.0020206537032747</v>
       </c>
       <c r="L41">
-        <v>-0.0593990501364563</v>
+        <v>-0.0759992549807519</v>
       </c>
       <c r="M41">
-        <v>0.046486486940621</v>
+        <v>0.0313800205139023</v>
       </c>
       <c r="N41">
-        <v>-0.223865927940157</v>
+        <v>-0.369406527106899</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q41">
         <v>1849990</v>
@@ -3438,16 +3435,16 @@
         <v>5575017</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3467,7 +3464,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3479,25 +3476,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>125.56</v>
+        <v>116</v>
       </c>
       <c r="K42">
-        <v>-0.170340078998665</v>
+        <v>0.574631296167607</v>
       </c>
       <c r="L42">
-        <v>-17.1011836002886</v>
+        <v>-16.1773628206126</v>
       </c>
       <c r="M42">
         <v>12.9361630433116</v>
       </c>
       <c r="N42">
-        <v>-0.13566428719231</v>
+        <v>0.495371807041041</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1849990</v>
@@ -3506,16 +3503,16 @@
         <v>5575017</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3535,7 +3532,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3550,22 +3547,22 @@
         <v>7.465</v>
       </c>
       <c r="K43">
-        <v>-0.0872293637746681</v>
+        <v>0.22354070596418</v>
       </c>
       <c r="L43">
-        <v>-0.853385814756783</v>
+        <v>-0.678212471492826</v>
       </c>
       <c r="M43">
-        <v>0.456305308432482</v>
+        <v>0.592608577828188</v>
       </c>
       <c r="N43">
-        <v>-1.16851123609736</v>
+        <v>2.99451715960054</v>
       </c>
       <c r="O43" t="s">
         <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>1849990</v>
@@ -3574,16 +3571,16 @@
         <v>5575017</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,19 +3612,19 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.596</v>
+        <v>0.5525</v>
       </c>
       <c r="K44">
-        <v>-0.0125724035608309</v>
+        <v>-0.009726584022038499</v>
       </c>
       <c r="L44">
-        <v>-0.0266110729095244</v>
+        <v>-0.0258577150450887</v>
       </c>
       <c r="M44">
-        <v>0.0012006297430902</v>
+        <v>0.0010862265057519</v>
       </c>
       <c r="N44">
-        <v>-2.10946368470316</v>
+        <v>-1.76046769629657</v>
       </c>
       <c r="O44" t="s">
         <v>45</v>
@@ -3642,16 +3639,16 @@
         <v>5575017</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3671,31 +3668,31 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.139625472684369</v>
+        <v>0.161618161662385</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>127</v>
+        <v>126.5</v>
       </c>
       <c r="K45">
         <v>-0.728476454293628</v>
       </c>
       <c r="L45">
-        <v>-2.83543006974385</v>
+        <v>-2.69731612871062</v>
       </c>
       <c r="M45">
-        <v>0.296356000986735</v>
+        <v>0.367010778350598</v>
       </c>
       <c r="N45">
-        <v>-0.573603507317817</v>
+        <v>-0.575870714856623</v>
       </c>
       <c r="O45" t="s">
         <v>45</v>
@@ -3710,16 +3707,16 @@
         <v>5575017</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3739,7 +3736,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.639742606431872</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3751,25 +3748,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>7.27</v>
+        <v>7.3725</v>
       </c>
       <c r="K46">
         <v>0.0201795580110502</v>
       </c>
       <c r="L46">
-        <v>-0.185233953976902</v>
+        <v>-0.210863168770508</v>
       </c>
       <c r="M46">
-        <v>0.139107656849178</v>
+        <v>0.102528052897554</v>
       </c>
       <c r="N46">
-        <v>0.27757301253164</v>
+        <v>0.273713909949816</v>
       </c>
       <c r="O46" t="s">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q46">
         <v>1849990</v>
@@ -3778,16 +3775,16 @@
         <v>5575017</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3807,7 +3804,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.383262649761786</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3819,25 +3816,25 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.5725</v>
+        <v>0.553</v>
       </c>
       <c r="K47">
-        <v>-0.0005166195190947</v>
+        <v>-0.001503086419753</v>
       </c>
       <c r="L47">
-        <v>-0.0154199257359591</v>
+        <v>-0.0134123921553262</v>
       </c>
       <c r="M47">
-        <v>0.0101054124004254</v>
+        <v>0.0062947538875855</v>
       </c>
       <c r="N47">
-        <v>-0.09023921730912959</v>
+        <v>-0.271805862523162</v>
       </c>
       <c r="O47" t="s">
         <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q47">
         <v>1849990</v>
@@ -3846,16 +3843,16 @@
         <v>5575017</v>
       </c>
       <c r="S47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3875,37 +3872,37 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.081715118235531</v>
+        <v>0.082409294905888</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K48">
         <v>-0.684677242888402</v>
       </c>
       <c r="L48">
-        <v>-1.36175550186124</v>
+        <v>-1.51827249005258</v>
       </c>
       <c r="M48">
-        <v>0.0058463171911335</v>
+        <v>0.252452537833227</v>
       </c>
       <c r="N48">
-        <v>-0.534904096006564</v>
+        <v>-0.539115939282206</v>
       </c>
       <c r="O48" t="s">
         <v>45</v>
       </c>
       <c r="P48" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q48">
         <v>1849990</v>
@@ -3914,16 +3911,16 @@
         <v>5575017</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3943,37 +3940,37 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.7945772533607121</v>
+        <v>0.872773736923272</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.928571428571429</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>7.145</v>
+        <v>7.26</v>
       </c>
       <c r="K49">
-        <v>0.0403577701200533</v>
+        <v>0.0499735885001732</v>
       </c>
       <c r="L49">
-        <v>-0.0427390186286321</v>
+        <v>-0.0203689711387523</v>
       </c>
       <c r="M49">
-        <v>0.10659923063</v>
+        <v>0.105174741634509</v>
       </c>
       <c r="N49">
-        <v>0.564839329881782</v>
+        <v>0.688341439396326</v>
       </c>
       <c r="O49" t="s">
         <v>45</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q49">
         <v>1849990</v>
@@ -3982,16 +3979,16 @@
         <v>5575017</v>
       </c>
       <c r="S49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4011,13 +4008,13 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.310165813053503</v>
+        <v>0.189664223841143</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.722222222222222</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4026,16 +4023,16 @@
         <v>128</v>
       </c>
       <c r="K50">
-        <v>-0.0910166957388487</v>
+        <v>-0.225532571781414</v>
       </c>
       <c r="L50">
-        <v>-0.796543779751137</v>
+        <v>-0.90151555838873</v>
       </c>
       <c r="M50">
-        <v>0.633919919522749</v>
+        <v>0.431306708483981</v>
       </c>
       <c r="N50">
-        <v>-0.0711067935459756</v>
+        <v>-0.17619732170423</v>
       </c>
       <c r="O50" t="s">
         <v>45</v>
@@ -4050,16 +4047,16 @@
         <v>5575017</v>
       </c>
       <c r="S50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
